--- a/research/Pollution study by departement 1Y Max 1M-TMCs.xlsx
+++ b/research/Pollution study by departement 1Y Max 1M-TMCs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ludo915\code\covsco\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2411AD86-C01A-4FBA-A7F0-B394A2A1BEB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05A3CB-9082-4361-A07B-CB522FBA2EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="173">
   <si>
     <t>Département</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Date of pollution peak</t>
   </si>
   <si>
-    <t>1MMaxo3</t>
-  </si>
-  <si>
     <t>TotalCovidCasesCumulated</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>2020-05-30</t>
   </si>
   <si>
-    <t>1MMaxco</t>
-  </si>
-  <si>
     <t>Ariège</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
     <t>2021-01-11</t>
   </si>
   <si>
-    <t>1MMaxno2</t>
-  </si>
-  <si>
     <t>2021-03-31</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
     <t>2020-12-18</t>
   </si>
   <si>
-    <t>1MMaxpm25</t>
-  </si>
-  <si>
     <t>2021-03-09</t>
   </si>
   <si>
@@ -542,9 +530,6 @@
     <t>2021-03-06</t>
   </si>
   <si>
-    <t>1MMaxpm10</t>
-  </si>
-  <si>
     <t>2021-02-06</t>
   </si>
   <si>
@@ -555,6 +540,9 @@
   </si>
   <si>
     <t>% &lt; 10 %</t>
+  </si>
+  <si>
+    <t>1Y-1MMaxo3</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1115,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,30 +1139,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>122.8897693495593</v>
@@ -1196,13 +1184,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>119.8333265587392</v>
@@ -1224,13 +1212,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
         <v>116.97956333120869</v>
@@ -1252,13 +1240,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>115.87342286009449</v>
@@ -1280,13 +1268,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1">
         <v>115.6018895304986</v>
@@ -1308,13 +1296,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1">
         <v>114.506434421205</v>
@@ -1336,13 +1324,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>114.22681159164119</v>
@@ -1364,13 +1352,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
         <v>113.7642458208163</v>
@@ -1392,13 +1380,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
         <v>113.2096011628209</v>
@@ -1420,13 +1408,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1">
         <v>113.16024262004009</v>
@@ -1448,13 +1436,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1">
         <v>113.13585674899019</v>
@@ -1476,13 +1464,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1">
         <v>112.82460559079389</v>
@@ -1504,13 +1492,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1">
         <v>112.51423323093439</v>
@@ -1532,13 +1520,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
         <v>112.0698779728345</v>
@@ -1560,13 +1548,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>111.89426297301711</v>
@@ -1588,13 +1576,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
         <v>111.7913049717249</v>
@@ -1616,13 +1604,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1">
         <v>111.2795073707552</v>
@@ -1644,13 +1632,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1">
         <v>110.7633590052492</v>
@@ -1672,13 +1660,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1">
         <v>110.7471028465291</v>
@@ -1700,13 +1688,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1">
         <v>110.61589803144631</v>
@@ -1728,13 +1716,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1">
         <v>110.4097222876234</v>
@@ -1756,13 +1744,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1">
         <v>109.8295587800836</v>
@@ -1784,13 +1772,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1">
         <v>109.4837102638643</v>
@@ -1812,13 +1800,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="1">
         <v>109.1683200091766</v>
@@ -1840,13 +1828,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1">
         <v>108.5889594988724</v>
@@ -1868,13 +1856,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1">
         <v>108.45807768438139</v>
@@ -1896,13 +1884,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1">
         <v>108.3116452900922</v>
@@ -1924,13 +1912,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1">
         <v>108.27435551376939</v>
@@ -1952,13 +1940,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="1">
         <v>108.2308098957696</v>
@@ -1980,13 +1968,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1">
         <v>107.95254692068229</v>
@@ -2008,13 +1996,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1">
         <v>107.8436532590104</v>
@@ -2036,13 +2024,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="1">
         <v>107.8193747432688</v>
@@ -2064,13 +2052,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>107.52121726870681</v>
@@ -2092,13 +2080,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>107.3975676871045</v>
@@ -2120,13 +2108,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
         <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1">
         <v>107.1967625227813</v>
@@ -2148,13 +2136,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1">
         <v>107.0459019608261</v>
@@ -2176,13 +2164,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="1">
         <v>106.377424652223</v>
@@ -2204,13 +2192,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1">
         <v>106.0502392848924</v>
@@ -2232,13 +2220,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="1">
         <v>105.75812720144521</v>
@@ -2260,13 +2248,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1">
         <v>104.9919025188277</v>
@@ -2288,13 +2276,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1">
         <v>104.9900327690456</v>
@@ -2316,13 +2304,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1">
         <v>104.7804836472344</v>
@@ -2344,13 +2332,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1">
         <v>104.77172079819459</v>
@@ -2372,13 +2360,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1">
         <v>104.5943922705131</v>
@@ -2400,13 +2388,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="1">
         <v>104.2961971354875</v>
@@ -2428,13 +2416,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>79</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1">
         <v>104.23919955871671</v>
@@ -2456,13 +2444,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1">
         <v>104.1360184262691</v>
@@ -2484,13 +2472,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1">
         <v>104.0347218609089</v>
@@ -2512,13 +2500,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
         <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1">
         <v>103.8531980654821</v>
@@ -2540,13 +2528,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1">
         <v>103.2252383298985</v>
@@ -2568,13 +2556,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="1">
         <v>102.8791058403436</v>
@@ -2596,13 +2584,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
         <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" s="1">
         <v>102.7087197192067</v>
@@ -2624,13 +2612,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>29</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="1">
         <v>102.65603905469079</v>
@@ -2652,13 +2640,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>202</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="1">
         <v>102.57255333572949</v>
@@ -2680,13 +2668,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="1">
         <v>102.5104982363499</v>
@@ -2708,13 +2696,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
         <v>73</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1">
         <v>102.41045832992179</v>
@@ -2736,13 +2724,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="1">
         <v>102.34484829682241</v>
@@ -2764,13 +2752,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
         <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1">
         <v>102.2517037295776</v>
@@ -2792,13 +2780,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1">
         <v>102.00540127916101</v>
@@ -2820,13 +2808,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1">
         <v>101.7664332811613</v>
@@ -2848,13 +2836,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="1">
         <v>101.69941030454591</v>
@@ -2876,13 +2864,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1">
         <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="1">
         <v>101.6664675348847</v>
@@ -2904,13 +2892,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1">
         <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1">
         <v>101.41366556951439</v>
@@ -2932,13 +2920,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1">
         <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1">
         <v>101.0341005473021</v>
@@ -2960,13 +2948,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="1">
         <v>100.8820342186558</v>
@@ -2988,13 +2976,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1">
         <v>46</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D67" s="1">
         <v>100.678762253081</v>
@@ -3016,13 +3004,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1">
         <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" s="1">
         <v>99.987531256729852</v>
@@ -3044,13 +3032,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1">
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1">
         <v>99.931061164918631</v>
@@ -3072,13 +3060,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1">
         <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1">
         <v>99.687997458570436</v>
@@ -3100,13 +3088,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1">
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
         <v>98.153472894899522</v>
@@ -3128,13 +3116,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="1">
         <v>33</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" s="1">
         <v>97.964722041862501</v>
@@ -3156,13 +3144,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1">
         <v>40</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1">
         <v>97.803908351230092</v>
@@ -3184,13 +3172,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="1">
         <v>43</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1">
         <v>97.6806773675778</v>
@@ -3212,13 +3200,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
         <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" s="1">
         <v>97.514611601170884</v>
@@ -3240,13 +3228,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="1">
         <v>48</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" s="1">
         <v>97.3918027238078</v>
@@ -3268,13 +3256,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="1">
         <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1">
         <v>97.362546743678323</v>
@@ -3296,13 +3284,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1">
         <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1">
         <v>97.302807932728086</v>
@@ -3324,13 +3312,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1">
         <v>24</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1">
         <v>97.085799380111695</v>
@@ -3352,13 +3340,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="1">
         <v>63</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" s="1">
         <v>96.96119505569736</v>
@@ -3380,13 +3368,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1">
         <v>201</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="1">
         <v>96.948134339835278</v>
@@ -3408,13 +3396,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1">
         <v>32</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" s="1">
         <v>96.919969400844082</v>
@@ -3436,13 +3424,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1">
         <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D83" s="1">
         <v>96.647181243005264</v>
@@ -3464,13 +3452,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1">
         <v>31</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D84" s="1">
         <v>96.617433897868921</v>
@@ -3492,13 +3480,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1">
         <v>42</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D85" s="1">
         <v>96.271698343974805</v>
@@ -3520,13 +3508,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1">
         <v>47</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" s="1">
         <v>96.019220560998093</v>
@@ -3548,13 +3536,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1">
         <v>37</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" s="1">
         <v>95.972628237307262</v>
@@ -3576,13 +3564,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1">
         <v>49</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" s="1">
         <v>95.866874307108844</v>
@@ -3604,13 +3592,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1">
         <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D89" s="1">
         <v>95.758473684939773</v>
@@ -3632,13 +3620,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1">
         <v>66</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D90" s="1">
         <v>94.853079737637515</v>
@@ -3660,13 +3648,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="1">
         <v>94.615576143621965</v>
@@ -3688,13 +3676,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1">
         <v>82</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="1">
         <v>94.135991648692723</v>
@@ -3716,13 +3704,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" s="1">
         <v>64</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="1">
         <v>94.09354855994556</v>
@@ -3744,13 +3732,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1">
         <v>30</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D94" s="1">
         <v>93.974201968427664</v>
@@ -3772,13 +3760,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="1">
         <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D95" s="1">
         <v>93.921767546340121</v>
@@ -3800,13 +3788,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1">
         <v>65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D96" s="1">
         <v>93.086194449117414</v>
@@ -3867,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3892,30 +3880,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>476.78387153460221</v>
@@ -3937,13 +3925,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>442.77282894560682</v>
@@ -3965,13 +3953,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1">
         <v>442.03147246698597</v>
@@ -3993,13 +3981,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1">
         <v>400.35428946012428</v>
@@ -4021,13 +4009,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1">
         <v>364.20786807825658</v>
@@ -4049,13 +4037,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1">
         <v>363.78598743600372</v>
@@ -4077,13 +4065,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1">
         <v>362.0217436542431</v>
@@ -4105,13 +4093,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1">
         <v>361.18053903297613</v>
@@ -4133,13 +4121,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1">
         <v>359.6851526903485</v>
@@ -4161,13 +4149,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1">
         <v>359.18437724142899</v>
@@ -4189,13 +4177,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1">
         <v>353.74944502656922</v>
@@ -4217,13 +4205,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1">
         <v>353.43139698522822</v>
@@ -4245,13 +4233,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1">
         <v>350.95341199889953</v>
@@ -4273,13 +4261,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1">
         <v>349.99786107857039</v>
@@ -4301,13 +4289,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1">
         <v>346.1753198366124</v>
@@ -4329,13 +4317,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1">
         <v>343.02204250003842</v>
@@ -4357,13 +4345,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1">
         <v>342.26686643580882</v>
@@ -4385,13 +4373,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1">
         <v>342.1015046524451</v>
@@ -4413,13 +4401,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1">
         <v>340.84527337117669</v>
@@ -4441,13 +4429,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1">
         <v>340.80434783031279</v>
@@ -4469,13 +4457,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1">
         <v>340.32266240134118</v>
@@ -4497,13 +4485,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1">
         <v>338.65885296302872</v>
@@ -4525,13 +4513,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="1">
         <v>336.70013559776089</v>
@@ -4553,13 +4541,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1">
         <v>335.41502847566812</v>
@@ -4581,13 +4569,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1">
         <v>333.23395332830171</v>
@@ -4609,13 +4597,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="1">
         <v>330.0008622889323</v>
@@ -4637,13 +4625,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1">
         <v>328.59718913014802</v>
@@ -4665,13 +4653,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
         <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1">
         <v>328.14869087881772</v>
@@ -4693,13 +4681,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1">
         <v>323.21988593306929</v>
@@ -4721,13 +4709,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1">
         <v>322.65202345506901</v>
@@ -4749,13 +4737,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="1">
         <v>321.71978426650321</v>
@@ -4777,13 +4765,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="1">
         <v>320.31441697335129</v>
@@ -4805,13 +4793,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1">
         <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="1">
         <v>319.0765182049845</v>
@@ -4833,13 +4821,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1">
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1">
         <v>315.57125823133981</v>
@@ -4861,13 +4849,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="1">
         <v>313.83715996908722</v>
@@ -4889,13 +4877,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1">
         <v>312.69587026047162</v>
@@ -4917,13 +4905,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
         <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="1">
         <v>312.43720105277441</v>
@@ -4945,13 +4933,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="1">
         <v>311.19264733517298</v>
@@ -4973,13 +4961,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1">
         <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="1">
         <v>306.09560010320598</v>
@@ -5001,13 +4989,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="1">
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1">
         <v>305.49666857328037</v>
@@ -5029,13 +5017,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1">
         <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1">
         <v>305.09733255021081</v>
@@ -5057,13 +5045,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1">
         <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="1">
         <v>303.11500250416009</v>
@@ -5085,13 +5073,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1">
         <v>302.80414127269893</v>
@@ -5113,13 +5101,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1">
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1">
         <v>302.17099199077461</v>
@@ -5141,13 +5129,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1">
         <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1">
         <v>301.64308255781111</v>
@@ -5169,13 +5157,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1">
         <v>301.6210441137448</v>
@@ -5197,13 +5185,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="1">
         <v>300.30634796983668</v>
@@ -5225,13 +5213,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1">
         <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1">
         <v>299.85769866299512</v>
@@ -5253,13 +5241,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1">
         <v>298.78397727134399</v>
@@ -5281,13 +5269,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1">
         <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1">
         <v>298.51858733169752</v>
@@ -5309,13 +5297,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1">
         <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" s="1">
         <v>297.27112522703129</v>
@@ -5337,13 +5325,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1">
         <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1">
         <v>292.22252967554351</v>
@@ -5365,13 +5353,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1">
         <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" s="1">
         <v>290.6887114903551</v>
@@ -5393,13 +5381,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1">
         <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1">
         <v>289.28961937489078</v>
@@ -5421,13 +5409,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1">
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D56" s="1">
         <v>288.1636819158864</v>
@@ -5449,13 +5437,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1">
         <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1">
         <v>287.24787944301238</v>
@@ -5477,13 +5465,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
         <v>87</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="1">
         <v>287.20035610224249</v>
@@ -5505,13 +5493,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1">
         <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1">
         <v>285.27549298208493</v>
@@ -5533,13 +5521,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1">
         <v>42</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1">
         <v>284.44601027241822</v>
@@ -5561,13 +5549,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1">
         <v>47</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1">
         <v>284.23306849272581</v>
@@ -5589,13 +5577,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1">
         <v>33</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1">
         <v>282.50686969527322</v>
@@ -5617,13 +5605,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="1">
         <v>280.43558270471289</v>
@@ -5645,13 +5633,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1">
         <v>85</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" s="1">
         <v>279.60950054372921</v>
@@ -5673,13 +5661,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1">
         <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="1">
         <v>276.1629677450544</v>
@@ -5701,13 +5689,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1">
         <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1">
         <v>275.90973715247401</v>
@@ -5729,13 +5717,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1">
         <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1">
         <v>271.42874750462772</v>
@@ -5757,13 +5745,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1">
         <v>269.44861225717432</v>
@@ -5785,13 +5773,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1">
         <v>74</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" s="1">
         <v>263.36193681301569</v>
@@ -5813,13 +5801,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="1">
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1">
         <v>260.65532143674812</v>
@@ -5841,13 +5829,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1">
         <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D71" s="1">
         <v>260.38599557364961</v>
@@ -5869,13 +5857,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D72" s="1">
         <v>260.38407685084809</v>
@@ -5897,13 +5885,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" s="1">
         <v>81</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D73" s="1">
         <v>259.68016015057952</v>
@@ -5925,13 +5913,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
         <v>46</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1">
         <v>257.40854591628022</v>
@@ -5953,13 +5941,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1">
         <v>32</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1">
         <v>257.04056421988901</v>
@@ -5981,13 +5969,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1">
         <v>30</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="1">
         <v>254.3112570872693</v>
@@ -6009,13 +5997,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1">
         <v>31</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1">
         <v>248.89043608537099</v>
@@ -6037,13 +6025,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="1">
         <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="1">
         <v>248.06135142234371</v>
@@ -6065,13 +6053,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D79" s="1">
         <v>247.76936450428559</v>
@@ -6093,13 +6081,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" s="1">
         <v>73</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" s="1">
         <v>247.29336072722319</v>
@@ -6121,13 +6109,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1">
         <v>43</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D81" s="1">
         <v>246.53600385087381</v>
@@ -6149,13 +6137,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1">
         <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1">
         <v>245.1686344470431</v>
@@ -6177,13 +6165,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" s="1">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D83" s="1">
         <v>238.26378739452031</v>
@@ -6205,13 +6193,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1">
         <v>19</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1">
         <v>235.67536580782181</v>
@@ -6233,13 +6221,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" s="1">
         <v>34</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D85" s="1">
         <v>230.63246015623179</v>
@@ -6261,13 +6249,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1">
         <v>64</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D86" s="1">
         <v>228.04597931443689</v>
@@ -6289,13 +6277,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" s="1">
         <v>202</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D87" s="1">
         <v>226.94185842419171</v>
@@ -6317,13 +6305,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" s="1">
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="1">
         <v>226.13896371496821</v>
@@ -6345,13 +6333,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D89" s="1">
         <v>225.93913570301609</v>
@@ -6373,13 +6361,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1">
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D90" s="1">
         <v>225.59620761310319</v>
@@ -6401,13 +6389,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="1">
         <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D91" s="1">
         <v>222.9220729790045</v>
@@ -6429,13 +6417,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" s="1">
         <v>201</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D92" s="1">
         <v>210.28564898091079</v>
@@ -6457,13 +6445,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="1">
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D93" s="1">
         <v>204.69985032296819</v>
@@ -6485,13 +6473,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1">
         <v>48</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D94" s="1">
         <v>202.4829311684293</v>
@@ -6513,13 +6501,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1">
         <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D95" s="1">
         <v>200.00192760637159</v>
@@ -6541,13 +6529,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B96" s="1">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D96" s="1">
         <v>189.4519204980314</v>
@@ -6609,7 +6597,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6633,30 +6621,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1">
         <v>67.312538662505347</v>
@@ -6678,13 +6666,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1">
         <v>64.47530624932071</v>
@@ -6706,13 +6694,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1">
         <v>56.091811589134132</v>
@@ -6734,13 +6722,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1">
         <v>53.384537899282932</v>
@@ -6762,13 +6750,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1">
         <v>51.599818312691397</v>
@@ -6790,13 +6778,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1">
         <v>43.024886237141303</v>
@@ -6818,13 +6806,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>36.432636012101881</v>
@@ -6846,13 +6834,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="1">
         <v>35.550153854682307</v>
@@ -6874,13 +6862,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1">
         <v>34.400609806230783</v>
@@ -6902,13 +6890,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1">
         <v>33.051846309062668</v>
@@ -6930,13 +6918,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="1">
         <v>32.507453185921612</v>
@@ -6958,13 +6946,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1">
         <v>32.071014548946223</v>
@@ -6986,13 +6974,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1">
         <v>31.177795415110531</v>
@@ -7014,13 +7002,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1">
         <v>30.168742073682989</v>
@@ -7042,13 +7030,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1">
         <v>28.42753977062981</v>
@@ -7070,13 +7058,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1">
         <v>27.680842038781439</v>
@@ -7098,13 +7086,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1">
         <v>27.240871849711748</v>
@@ -7126,13 +7114,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1">
         <v>27.228653835477971</v>
@@ -7154,13 +7142,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1">
         <v>27.17741138064925</v>
@@ -7182,13 +7170,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1">
         <v>27.047622752528849</v>
@@ -7210,13 +7198,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="1">
         <v>26.369409718605041</v>
@@ -7238,13 +7226,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1">
         <v>26.319192938652758</v>
@@ -7266,13 +7254,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1">
         <v>26.279941441979169</v>
@@ -7294,13 +7282,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1">
         <v>25.68023350814115</v>
@@ -7322,13 +7310,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1">
         <v>25.301521435937431</v>
@@ -7350,13 +7338,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27" s="1">
         <v>24.736698669958979</v>
@@ -7378,13 +7366,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1">
         <v>24.578586752248238</v>
@@ -7406,13 +7394,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1">
         <v>24.42960019205217</v>
@@ -7434,13 +7422,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1">
         <v>24.40324684882161</v>
@@ -7462,13 +7450,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
         <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1">
         <v>24.327172926820172</v>
@@ -7490,13 +7478,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1">
         <v>24.061473171273189</v>
@@ -7518,13 +7506,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
         <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1">
         <v>23.878312401878588</v>
@@ -7546,13 +7534,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1">
         <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1">
         <v>23.808030363893209</v>
@@ -7574,13 +7562,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D35" s="1">
         <v>23.706681234252681</v>
@@ -7602,13 +7590,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1">
         <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1">
         <v>23.273618754261559</v>
@@ -7630,13 +7618,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1">
         <v>22.83087254881481</v>
@@ -7658,13 +7646,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D38" s="1">
         <v>22.51985026016677</v>
@@ -7686,13 +7674,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1">
         <v>22.480041879957589</v>
@@ -7714,13 +7702,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1">
         <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1">
         <v>22.38887887686791</v>
@@ -7742,13 +7730,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1">
         <v>22.343608617042261</v>
@@ -7770,13 +7758,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1">
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1">
         <v>22.144911829544501</v>
@@ -7798,13 +7786,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1">
         <v>21.806931398576761</v>
@@ -7826,13 +7814,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1">
         <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
         <v>21.31037890686823</v>
@@ -7854,13 +7842,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1">
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1">
         <v>21.303169258729952</v>
@@ -7882,13 +7870,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1">
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1">
         <v>21.29527655535103</v>
@@ -7910,13 +7898,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>79</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1">
         <v>20.903377128393561</v>
@@ -7938,13 +7926,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1">
         <v>76</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1">
         <v>19.998412355931709</v>
@@ -7966,13 +7954,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1">
         <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D49" s="1">
         <v>19.85524561901628</v>
@@ -7994,13 +7982,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1">
         <v>19.815029445898499</v>
@@ -8022,13 +8010,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1">
         <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D51" s="1">
         <v>19.762213914103999</v>
@@ -8050,13 +8038,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1">
         <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1">
         <v>19.719130527186351</v>
@@ -8078,13 +8066,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="1">
         <v>42</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D53" s="1">
         <v>19.445883717045412</v>
@@ -8106,13 +8094,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1">
         <v>19.18035757560861</v>
@@ -8134,13 +8122,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1">
         <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1">
         <v>19.10999856061396</v>
@@ -8162,13 +8150,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1">
         <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1">
         <v>18.79365752466326</v>
@@ -8190,13 +8178,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1">
         <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" s="1">
         <v>18.139619204729328</v>
@@ -8218,13 +8206,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1">
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="1">
         <v>17.66562371252796</v>
@@ -8246,13 +8234,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1">
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1">
         <v>17.40519726727274</v>
@@ -8274,13 +8262,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="1">
         <v>85</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1">
         <v>17.07530132693849</v>
@@ -8302,13 +8290,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1">
         <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D61" s="1">
         <v>16.837074533356681</v>
@@ -8330,13 +8318,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1">
         <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1">
         <v>16.596046445328678</v>
@@ -8358,13 +8346,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="1">
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D63" s="1">
         <v>16.129169323943739</v>
@@ -8386,13 +8374,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="1">
         <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" s="1">
         <v>16.09564924989423</v>
@@ -8414,13 +8402,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1">
         <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D65" s="1">
         <v>15.965623003455111</v>
@@ -8442,13 +8430,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1">
         <v>87</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1">
         <v>15.86351791372325</v>
@@ -8470,13 +8458,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1">
         <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1">
         <v>15.819835411009439</v>
@@ -8498,13 +8486,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1">
         <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1">
         <v>15.796335025563319</v>
@@ -8526,13 +8514,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1">
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D69" s="1">
         <v>15.65072915749203</v>
@@ -8554,13 +8542,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="1">
         <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D70" s="1">
         <v>15.569274668421549</v>
@@ -8582,13 +8570,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>58</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1">
         <v>15.529494896849849</v>
@@ -8610,13 +8598,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1">
         <v>64</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1">
         <v>14.619566798217759</v>
@@ -8638,13 +8626,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1">
         <v>39</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D73" s="1">
         <v>14.564832422240309</v>
@@ -8666,13 +8654,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="1">
         <v>33</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D74" s="1">
         <v>13.52683128030286</v>
@@ -8694,13 +8682,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="1">
         <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D75" s="1">
         <v>13.192156169341009</v>
@@ -8722,13 +8710,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1">
         <v>46</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1">
         <v>13.11746866402939</v>
@@ -8750,13 +8738,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>43</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1">
         <v>13.108438523555851</v>
@@ -8778,13 +8766,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1">
         <v>47</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D78" s="1">
         <v>13.01380811158293</v>
@@ -8806,13 +8794,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="1">
         <v>23</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D79" s="1">
         <v>12.789404259045151</v>
@@ -8834,13 +8822,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1">
         <v>32</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1">
         <v>12.06206267980537</v>
@@ -8862,13 +8850,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D81" s="1">
         <v>11.42518825049525</v>
@@ -8890,13 +8878,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="1">
         <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1">
         <v>11.39157856431595</v>
@@ -8918,13 +8906,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1">
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D83" s="1">
         <v>10.95661079010781</v>
@@ -8946,13 +8934,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="1">
         <v>34</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D84" s="1">
         <v>10.50805486568952</v>
@@ -8974,13 +8962,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1">
         <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1">
         <v>10.205028058098749</v>
@@ -9002,13 +8990,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="1">
         <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1">
         <v>10.13323228438859</v>
@@ -9030,13 +9018,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1">
         <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D87" s="1">
         <v>9.7680854864304436</v>
@@ -9058,13 +9046,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1">
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="1">
         <v>9.6367188588975647</v>
@@ -9086,13 +9074,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D89" s="1">
         <v>9.3867404375024996</v>
@@ -9114,13 +9102,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D90" s="1">
         <v>9.3311982850234347</v>
@@ -9142,13 +9130,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B91" s="1">
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D91" s="1">
         <v>8.8079798624342889</v>
@@ -9170,13 +9158,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1">
         <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D92" s="1">
         <v>8.4066278598635691</v>
@@ -9198,13 +9186,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1">
         <v>48</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1">
         <v>7.7272596367298831</v>
@@ -9226,13 +9214,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B94" s="1">
         <v>201</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D94" s="1">
         <v>6.285247044262726</v>
@@ -9254,13 +9242,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" s="1">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D95" s="1">
         <v>6.2542259284503876</v>
@@ -9282,13 +9270,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
         <v>66</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D96" s="1">
         <v>6.0716305559176966</v>
@@ -9350,7 +9338,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9374,30 +9362,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1">
         <v>46.42351518419963</v>
@@ -9419,13 +9407,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1">
         <v>39.932959766009901</v>
@@ -9447,13 +9435,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1">
         <v>37.243984045925892</v>
@@ -9475,13 +9463,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1">
         <v>36.380766941978273</v>
@@ -9503,13 +9491,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1">
         <v>35.418334682246908</v>
@@ -9531,13 +9519,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
         <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1">
         <v>34.895373271601123</v>
@@ -9559,13 +9547,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1">
         <v>34.844151797942551</v>
@@ -9587,13 +9575,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1">
         <v>34.598312734828802</v>
@@ -9615,13 +9603,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1">
         <v>34.358991331635153</v>
@@ -9643,13 +9631,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1">
         <v>34.338522274811687</v>
@@ -9671,13 +9659,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1">
         <v>34.277931196851767</v>
@@ -9699,13 +9687,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1">
         <v>33.779638022525027</v>
@@ -9727,13 +9715,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1">
         <v>33.43636806895239</v>
@@ -9755,13 +9743,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1">
         <v>32.537157317299098</v>
@@ -9783,13 +9771,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1">
         <v>31.30104431450162</v>
@@ -9811,13 +9799,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1">
         <v>31.072622675048638</v>
@@ -9839,13 +9827,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1">
         <v>31.025238900456909</v>
@@ -9867,13 +9855,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1">
         <v>30.348768979585788</v>
@@ -9895,13 +9883,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1">
         <v>30.263437717191358</v>
@@ -9923,13 +9911,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D21" s="1">
         <v>30.18882000191153</v>
@@ -9951,13 +9939,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1">
         <v>29.871271760797811</v>
@@ -9979,13 +9967,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1">
         <v>29.85992212035335</v>
@@ -10007,13 +9995,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
         <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1">
         <v>29.843481967418288</v>
@@ -10035,13 +10023,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D25" s="1">
         <v>29.337425391104169</v>
@@ -10063,13 +10051,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1">
         <v>29.288115170351158</v>
@@ -10091,13 +10079,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1">
         <v>29.216042382647981</v>
@@ -10119,13 +10107,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1">
         <v>29.11226225236733</v>
@@ -10147,13 +10135,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1">
         <v>28.904478357912829</v>
@@ -10175,13 +10163,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1">
         <v>28.8342733290594</v>
@@ -10203,13 +10191,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1">
         <v>28.784380586319308</v>
@@ -10231,13 +10219,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1">
         <v>28.659883797084309</v>
@@ -10259,13 +10247,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
         <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D33" s="1">
         <v>28.470467300663451</v>
@@ -10287,13 +10275,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1">
         <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1">
         <v>28.431873158300309</v>
@@ -10315,13 +10303,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1">
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1">
         <v>28.272039160656728</v>
@@ -10343,13 +10331,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1">
         <v>28.123025295037589</v>
@@ -10371,13 +10359,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1">
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D37" s="1">
         <v>28.08323543002934</v>
@@ -10399,13 +10387,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1">
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1">
         <v>28.06780246057712</v>
@@ -10427,13 +10415,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1">
         <v>27.980309651212</v>
@@ -10455,13 +10443,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1">
         <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1">
         <v>27.97137571146736</v>
@@ -10483,13 +10471,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1">
         <v>27.89469481706594</v>
@@ -10511,13 +10499,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1">
         <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D42" s="1">
         <v>27.875355365138219</v>
@@ -10539,13 +10527,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1">
         <v>27.868018562897451</v>
@@ -10567,13 +10555,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1">
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D44" s="1">
         <v>27.715889702687111</v>
@@ -10595,13 +10583,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1">
         <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1">
         <v>27.54051900247277</v>
@@ -10623,13 +10611,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1">
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D46" s="1">
         <v>27.44768859100401</v>
@@ -10651,13 +10639,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1">
         <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1">
         <v>27.272925751091641</v>
@@ -10679,13 +10667,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1">
         <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D48" s="1">
         <v>26.894153532067929</v>
@@ -10707,13 +10695,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D49" s="1">
         <v>26.771619969098751</v>
@@ -10735,13 +10723,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D50" s="1">
         <v>26.75119571948132</v>
@@ -10763,13 +10751,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1">
         <v>31</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D51" s="1">
         <v>26.70815449871025</v>
@@ -10791,13 +10779,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D52" s="1">
         <v>26.67449259900863</v>
@@ -10819,13 +10807,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1">
         <v>26.573375267891731</v>
@@ -10847,13 +10835,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1">
         <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D54" s="1">
         <v>26.478983333604589</v>
@@ -10875,13 +10863,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1">
         <v>26.47722471980375</v>
@@ -10903,13 +10891,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1">
         <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="1">
         <v>26.37997762087797</v>
@@ -10931,13 +10919,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>89</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D57" s="1">
         <v>26.307038022671911</v>
@@ -10959,13 +10947,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="1">
         <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" s="1">
         <v>26.253193503556531</v>
@@ -10987,13 +10975,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1">
         <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D59" s="1">
         <v>26.04582034239877</v>
@@ -11015,13 +11003,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
         <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60" s="1">
         <v>25.829771428895551</v>
@@ -11043,13 +11031,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="1">
         <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1">
         <v>25.734320806678841</v>
@@ -11071,13 +11059,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1">
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1">
         <v>25.622629937606021</v>
@@ -11099,13 +11087,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" s="1">
         <v>32</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" s="1">
         <v>25.515044042926689</v>
@@ -11127,13 +11115,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1">
         <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D64" s="1">
         <v>25.480781352004321</v>
@@ -11155,13 +11143,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1">
         <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1">
         <v>25.14348542027534</v>
@@ -11183,13 +11171,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1">
         <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D66" s="1">
         <v>25.07555328891425</v>
@@ -11211,13 +11199,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1">
         <v>81</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D67" s="1">
         <v>25.02104098273497</v>
@@ -11239,13 +11227,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D68" s="1">
         <v>24.98079013793468</v>
@@ -11267,13 +11255,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D69" s="1">
         <v>24.967062285206229</v>
@@ -11295,13 +11283,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1">
         <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D70" s="1">
         <v>24.811924460950951</v>
@@ -11323,13 +11311,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1">
         <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D71" s="1">
         <v>24.79027897628043</v>
@@ -11351,13 +11339,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1">
         <v>73</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D72" s="1">
         <v>24.413911369275791</v>
@@ -11379,13 +11367,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="1">
         <v>52</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D73" s="1">
         <v>24.04541129058283</v>
@@ -11407,13 +11395,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1">
         <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D74" s="1">
         <v>23.88393765159276</v>
@@ -11435,13 +11423,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1">
         <v>23</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D75" s="1">
         <v>23.77442970519866</v>
@@ -11463,13 +11451,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1">
         <v>55</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1">
         <v>23.660710810755429</v>
@@ -11491,13 +11479,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77" s="1">
         <v>71</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D77" s="1">
         <v>23.276296140092111</v>
@@ -11519,13 +11507,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1">
         <v>42</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D78" s="1">
         <v>23.218472326226461</v>
@@ -11547,13 +11535,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="1">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1">
         <v>22.575304218476919</v>
@@ -11575,13 +11563,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1">
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D80" s="1">
         <v>22.508613727654311</v>
@@ -11603,13 +11591,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1">
         <v>58</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D81" s="1">
         <v>22.324906116499829</v>
@@ -11631,13 +11619,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1">
         <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1">
         <v>22.17100748712825</v>
@@ -11659,13 +11647,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1">
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1">
         <v>22.07725516712296</v>
@@ -11687,13 +11675,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>201</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1">
         <v>21.828430018948769</v>
@@ -11715,13 +11703,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="1">
         <v>46</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D85" s="1">
         <v>21.79367487217969</v>
@@ -11743,13 +11731,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" s="1">
         <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D86" s="1">
         <v>21.587338590146452</v>
@@ -11771,13 +11759,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1">
         <v>19</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D87" s="1">
         <v>21.170230892508471</v>
@@ -11799,13 +11787,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1">
         <v>21.101544409792801</v>
@@ -11827,13 +11815,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" s="1">
         <v>202</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D89" s="1">
         <v>21.01536760828731</v>
@@ -11855,13 +11843,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1">
         <v>34</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D90" s="1">
         <v>20.9482377968503</v>
@@ -11883,13 +11871,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="1">
         <v>66</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D91" s="1">
         <v>20.769010922675609</v>
@@ -11911,13 +11899,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1">
         <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D92" s="1">
         <v>20.30871034432943</v>
@@ -11939,13 +11927,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D93" s="1">
         <v>20.296408871533352</v>
@@ -11967,13 +11955,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1">
         <v>21</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D94" s="1">
         <v>20.115371863051639</v>
@@ -11995,13 +11983,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="1">
         <v>48</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" s="1">
         <v>19.93536854440277</v>
@@ -12023,13 +12011,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D96" s="1">
         <v>19.765781461904972</v>
@@ -12090,8 +12078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12118,27 +12106,27 @@
         <v>172</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1">
         <v>74.188287930406204</v>
@@ -12160,13 +12148,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1">
         <v>71.831104376111028</v>
@@ -12188,13 +12176,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1">
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1">
         <v>70.996064385363681</v>
@@ -12216,13 +12204,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1">
         <v>70.504318426312778</v>
@@ -12244,13 +12232,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>69.817902427807297</v>
@@ -12272,13 +12260,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1">
         <v>69.755449653611862</v>
@@ -12300,13 +12288,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1">
         <v>69.059070064710994</v>
@@ -12328,13 +12316,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
         <v>66.911415292040402</v>
@@ -12356,13 +12344,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" s="1">
         <v>65.660411884753174</v>
@@ -12384,13 +12372,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1">
         <v>64.562615186462978</v>
@@ -12412,13 +12400,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1">
         <v>64.386770732648017</v>
@@ -12440,13 +12428,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1">
         <v>64.33220412995918</v>
@@ -12468,13 +12456,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="1">
         <v>63.630207945035572</v>
@@ -12496,13 +12484,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1">
         <v>62.671780429699623</v>
@@ -12524,13 +12512,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1">
         <v>61.042058965634347</v>
@@ -12552,13 +12540,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1">
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="1">
         <v>60.943839506766793</v>
@@ -12580,13 +12568,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1">
         <v>60.513176046496397</v>
@@ -12608,13 +12596,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D19" s="1">
         <v>60.398665332793712</v>
@@ -12636,13 +12624,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1">
         <v>59.536155004077727</v>
@@ -12664,13 +12652,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1">
         <v>58.596119570687407</v>
@@ -12692,13 +12680,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1">
         <v>57.867393925891292</v>
@@ -12720,13 +12708,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D23" s="1">
         <v>57.396843309877752</v>
@@ -12748,13 +12736,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1">
         <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1">
         <v>57.28920733944247</v>
@@ -12776,13 +12764,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1">
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1">
         <v>57.064797793896638</v>
@@ -12804,13 +12792,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1">
         <v>56.841786231827363</v>
@@ -12832,13 +12820,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1">
         <v>56.778886485316249</v>
@@ -12860,13 +12848,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1">
         <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D28" s="1">
         <v>56.754144905717418</v>
@@ -12888,13 +12876,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1">
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1">
         <v>56.393504375978146</v>
@@ -12916,13 +12904,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1">
         <v>56.387344712160143</v>
@@ -12944,13 +12932,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1">
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="1">
         <v>56.043851548213468</v>
@@ -12972,13 +12960,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1">
         <v>55.92870396494088</v>
@@ -13000,13 +12988,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1">
         <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1">
         <v>55.598859742635781</v>
@@ -13028,13 +13016,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1">
         <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1">
         <v>55.377102378527098</v>
@@ -13056,13 +13044,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D35" s="1">
         <v>54.77402426737649</v>
@@ -13084,13 +13072,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
         <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1">
         <v>54.095739598591493</v>
@@ -13112,13 +13100,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1">
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="1">
         <v>53.955018552894522</v>
@@ -13140,13 +13128,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1">
         <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1">
         <v>53.756081354908503</v>
@@ -13168,13 +13156,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1">
         <v>53.750111887401303</v>
@@ -13196,13 +13184,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1">
         <v>53.723208373747617</v>
@@ -13224,13 +13212,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
         <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1">
         <v>53.658380718600739</v>
@@ -13252,13 +13240,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1">
         <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1">
         <v>53.434526794068667</v>
@@ -13280,13 +13268,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1">
         <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1">
         <v>53.422223503242108</v>
@@ -13308,13 +13296,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1">
         <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1">
         <v>53.334608999919098</v>
@@ -13336,13 +13324,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1">
         <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
         <v>53.03896538947118</v>
@@ -13364,13 +13352,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="1">
         <v>53.027420885471813</v>
@@ -13392,13 +13380,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1">
         <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1">
         <v>53.019942493349973</v>
@@ -13420,13 +13408,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="1">
         <v>52.887323747823459</v>
@@ -13448,13 +13436,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1">
         <v>52.618436998171042</v>
@@ -13476,13 +13464,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="1">
         <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1">
         <v>52.140530175995657</v>
@@ -13504,13 +13492,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="1">
         <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D51" s="1">
         <v>51.933607736352073</v>
@@ -13532,13 +13520,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D52" s="1">
         <v>51.796594906032666</v>
@@ -13560,13 +13548,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1">
         <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D53" s="1">
         <v>51.671501445850453</v>
@@ -13588,13 +13576,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
         <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1">
         <v>51.621602654399723</v>
@@ -13616,13 +13604,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1">
         <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D55" s="1">
         <v>51.189667834682282</v>
@@ -13644,13 +13632,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1">
         <v>49.871175153354763</v>
@@ -13672,13 +13660,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D57" s="1">
         <v>49.864979736548797</v>
@@ -13700,13 +13688,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1">
         <v>47</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" s="1">
         <v>49.858847238071327</v>
@@ -13728,13 +13716,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>44</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1">
         <v>49.506872574822182</v>
@@ -13756,13 +13744,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1">
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1">
         <v>49.421556217699148</v>
@@ -13784,13 +13772,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1">
         <v>56</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="1">
         <v>48.915876440101393</v>
@@ -13812,13 +13800,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
         <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1">
         <v>48.738519551142801</v>
@@ -13840,13 +13828,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1">
         <v>79</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1">
         <v>48.462762687041398</v>
@@ -13868,13 +13856,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="1">
         <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1">
         <v>48.456471384757947</v>
@@ -13896,13 +13884,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1">
         <v>48.361747590296261</v>
@@ -13924,13 +13912,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="1">
         <v>30</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D66" s="1">
         <v>48.151817782930863</v>
@@ -13952,13 +13940,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" s="1">
         <v>45</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D67" s="1">
         <v>47.907170629302819</v>
@@ -13980,13 +13968,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1">
         <v>37</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D68" s="1">
         <v>47.701480031013958</v>
@@ -14008,13 +13996,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1">
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D69" s="1">
         <v>47.446521361427358</v>
@@ -14036,13 +14024,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1">
         <v>63</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1">
         <v>47.422278161168713</v>
@@ -14064,13 +14052,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="1">
         <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1">
         <v>47.258862579127403</v>
@@ -14092,13 +14080,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1">
         <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1">
         <v>47.172463710676567</v>
@@ -14120,13 +14108,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1">
         <v>48</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D73" s="1">
         <v>47.151774455014419</v>
@@ -14148,13 +14136,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
         <v>46</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1">
         <v>46.544890255984363</v>
@@ -14176,13 +14164,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1">
         <v>49</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D75" s="1">
         <v>46.466968999762557</v>
@@ -14204,13 +14192,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="1">
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D76" s="1">
         <v>45.915653725745138</v>
@@ -14232,13 +14220,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="1">
         <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1">
         <v>45.87101525998122</v>
@@ -14260,13 +14248,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1">
         <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D78" s="1">
         <v>45.534333605371849</v>
@@ -14288,13 +14276,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="1">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D79" s="1">
         <v>45.526702451459798</v>
@@ -14316,13 +14304,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D80" s="1">
         <v>45.033494675573657</v>
@@ -14344,13 +14332,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="1">
         <v>34</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D81" s="1">
         <v>44.771702772516278</v>
@@ -14372,13 +14360,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>87</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1">
         <v>44.709764880634808</v>
@@ -14400,13 +14388,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1">
         <v>43</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1">
         <v>44.130557408237962</v>
@@ -14428,13 +14416,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1">
         <v>33</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D84" s="1">
         <v>44.041834941811253</v>
@@ -14456,13 +14444,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1">
         <v>66</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D85" s="1">
         <v>43.500396164525611</v>
@@ -14484,13 +14472,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1">
         <v>50</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D86" s="1">
         <v>43.186084320235473</v>
@@ -14512,13 +14500,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="1">
         <v>76</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D87" s="1">
         <v>42.869065822276362</v>
@@ -14540,13 +14528,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1">
         <v>24</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D88" s="1">
         <v>42.013144247139088</v>
@@ -14568,13 +14556,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="1">
         <v>28</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D89" s="1">
         <v>41.779951849277573</v>
@@ -14596,13 +14584,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B90" s="1">
         <v>19</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1">
         <v>41.637070775549887</v>
@@ -14624,13 +14612,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1">
         <v>17</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D91" s="1">
         <v>41.451930751803722</v>
@@ -14652,13 +14640,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1">
         <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D92" s="1">
         <v>41.005545200138982</v>
@@ -14680,13 +14668,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1">
         <v>53</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D93" s="1">
         <v>40.262763945333532</v>
@@ -14708,13 +14696,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94" s="1">
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D94" s="1">
         <v>39.774690891445381</v>
@@ -14736,13 +14724,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B95" s="1">
         <v>14</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D95" s="1">
         <v>38.762628899298292</v>
@@ -14764,13 +14752,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B96" s="1">
         <v>72</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D96" s="1">
         <v>36.942585937594053</v>
